--- a/output/tables/aggregation_descriptive_table.xlsx
+++ b/output/tables/aggregation_descriptive_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Limaf\Desktop\Mestrado\Dissertation\output\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7DA7DA-D73A-4CD2-8A02-449098180114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462D4F27-8069-4947-ACCD-BF32981B5C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2107,17 +2107,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CE6224-E917-4131-92DB-134A7E0A17B3}">
   <dimension ref="C3:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:L78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="67.88671875" customWidth="1"/>
     <col min="4" max="12" width="7.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="23" t="s">
         <v>98</v>
       </c>
@@ -2135,7 +2135,7 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
       <c r="E4" s="3" t="s">
@@ -2163,7 +2163,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>99</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="5" t="s">
         <v>100</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="21" t="s">
         <v>141</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>1.18331668376744</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>101</v>
       </c>
@@ -2237,7 +2237,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="21" t="s">
         <v>142</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>1.7122348628008901</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="21" t="s">
         <v>143</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>1.1245072233358899</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="21" t="s">
         <v>144</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>1.8289324381976899</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="21" t="s">
         <v>145</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>1.8944388885866801</v>
       </c>
     </row>
-    <row r="13" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="21" t="s">
         <v>146</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>0.64261791425157</v>
       </c>
     </row>
-    <row r="14" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5" t="s">
         <v>102</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="21" t="s">
         <v>147</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>1.50752094774439</v>
       </c>
     </row>
-    <row r="16" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="5" t="s">
         <v>103</v>
       </c>
@@ -2457,7 +2457,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="21" t="s">
         <v>148</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>1.5205913359607399</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="21" t="s">
         <v>149</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>1.39478824734302</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="21" t="s">
         <v>150</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>1.18323089647308</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="5" t="s">
         <v>104</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="21" t="s">
         <v>151</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>1.92467656792716</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="21" t="s">
         <v>152</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>1.30078173858975</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="21" t="s">
         <v>153</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>1.6489461164119601</v>
       </c>
     </row>
-    <row r="24" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="21" t="s">
         <v>154</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>1.4784488067850701</v>
       </c>
     </row>
-    <row r="25" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="5" t="s">
         <v>105</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="21" t="s">
         <v>155</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>1.6654283906776699</v>
       </c>
     </row>
-    <row r="27" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>106</v>
       </c>
@@ -2755,7 +2755,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="21" t="s">
         <v>156</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>1.5865105146702401</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="21" t="s">
         <v>157</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>0.98971188016612999</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="22" t="s">
         <v>158</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>1.51127482646254</v>
       </c>
     </row>
-    <row r="31" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="21" t="s">
         <v>17</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>1.3804057168927599</v>
       </c>
     </row>
-    <row r="32" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="5" t="s">
         <v>107</v>
       </c>
@@ -2897,7 +2897,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="21" t="s">
         <v>159</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>1.39896919592711</v>
       </c>
     </row>
-    <row r="34" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="5" t="s">
         <v>108</v>
       </c>
@@ -2943,7 +2943,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="21" t="s">
         <v>160</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>0.95205554041815199</v>
       </c>
     </row>
-    <row r="36" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="5" t="s">
         <v>109</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="21" t="s">
         <v>161</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>1.5275416159963799</v>
       </c>
     </row>
-    <row r="38" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="21" t="s">
         <v>162</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>1.7681129808257401</v>
       </c>
     </row>
-    <row r="39" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="21" t="s">
         <v>163</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>1.4680446216924401</v>
       </c>
     </row>
-    <row r="40" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="21" t="s">
         <v>164</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>0.70831367950401403</v>
       </c>
     </row>
-    <row r="41" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="5" t="s">
         <v>110</v>
       </c>
@@ -3131,7 +3131,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="5" t="s">
         <v>111</v>
       </c>
@@ -3145,7 +3145,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="21" t="s">
         <v>165</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>1.50756769100475</v>
       </c>
     </row>
-    <row r="44" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="5" t="s">
         <v>112</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="21" t="s">
         <v>166</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>1.7339691815651399</v>
       </c>
     </row>
-    <row r="46" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="5" t="s">
         <v>113</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="21" t="s">
         <v>167</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>1.71083102221845</v>
       </c>
     </row>
-    <row r="48" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="5" t="s">
         <v>115</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="5" t="s">
         <v>114</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="21" t="s">
         <v>168</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>1.205645553544</v>
       </c>
     </row>
-    <row r="51" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="21" t="s">
         <v>169</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>0.80404686781647805</v>
       </c>
     </row>
-    <row r="52" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="5" t="s">
         <v>116</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="21" t="s">
         <v>170</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>1.23619330040896</v>
       </c>
     </row>
-    <row r="54" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="5" t="s">
         <v>117</v>
       </c>
@@ -3421,7 +3421,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="21" t="s">
         <v>171</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>1.5735707408897801</v>
       </c>
     </row>
-    <row r="56" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="21" t="s">
         <v>172</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>1.46769492991942</v>
       </c>
     </row>
-    <row r="57" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="5" t="s">
         <v>118</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="21" t="s">
         <v>173</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>0.62917170947559298</v>
       </c>
     </row>
-    <row r="59" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="21" t="s">
         <v>174</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>0.59898028873609599</v>
       </c>
     </row>
-    <row r="60" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="5" t="s">
         <v>119</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="21" t="s">
         <v>175</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>1.54305952347438</v>
       </c>
     </row>
-    <row r="62" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="21" t="s">
         <v>176</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>1.50449481899472</v>
       </c>
     </row>
-    <row r="63" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="21" t="s">
         <v>177</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>1.3404123620434301</v>
       </c>
     </row>
-    <row r="64" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="21" t="s">
         <v>178</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>1.4056179338919601</v>
       </c>
     </row>
-    <row r="65" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="21" t="s">
         <v>179</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>1.6340669720129899</v>
       </c>
     </row>
-    <row r="66" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="21" t="s">
         <v>180</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>1.4665180064443999</v>
       </c>
     </row>
-    <row r="67" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="21" t="s">
         <v>181</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>1.6616206269856899</v>
       </c>
     </row>
-    <row r="68" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="5" t="s">
         <v>120</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="5" t="s">
         <v>121</v>
       </c>
@@ -3829,7 +3829,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="21" t="s">
         <v>182</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>1.72020942078206</v>
       </c>
     </row>
-    <row r="71" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="21" t="s">
         <v>183</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>1.1776388605800301</v>
       </c>
     </row>
-    <row r="72" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="21" t="s">
         <v>184</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>1.6854868165194401</v>
       </c>
     </row>
-    <row r="73" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="21" t="s">
         <v>185</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>1.8575359597957599</v>
       </c>
     </row>
-    <row r="74" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="21" t="s">
         <v>186</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>1.4090999068926799</v>
       </c>
     </row>
-    <row r="75" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="21" t="s">
         <v>187</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>1.30021404822328</v>
       </c>
     </row>
-    <row r="76" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="9" t="s">
         <v>123</v>
       </c>
@@ -4035,7 +4035,7 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="5" t="s">
         <v>122</v>
       </c>
@@ -4049,7 +4049,7 @@
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
     </row>
-    <row r="78" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="20" t="s">
         <v>188</v>
       </c>
